--- a/Sistema MenuEstadistica.xlsx
+++ b/Sistema MenuEstadistica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilberto\Documents\GitHub\POO_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6AF46-0368-4A56-BED1-907B39AA94BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2225A1D-6FA9-4925-A546-0E2EC5863B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sistema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>nombre</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>pos=</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -438,31 +447,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -474,10 +468,13 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,21 +818,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AAB793-617C-4441-A3B8-D2C3B9518E63}">
   <dimension ref="B3:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="8.42578125" style="1"/>
-    <col min="11" max="11" width="3.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16" width="8.42578125" style="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.42578125" style="1"/>
+    <col min="1" max="10" width="8.453125" style="1"/>
+    <col min="11" max="11" width="3.81640625" style="1" customWidth="1"/>
+    <col min="12" max="16" width="8.453125" style="1"/>
+    <col min="17" max="17" width="4.453125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
@@ -843,7 +840,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -863,7 +860,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -883,7 +880,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="22" t="s">
         <v>7</v>
@@ -905,7 +902,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="22" t="s">
         <v>8</v>
@@ -927,7 +924,7 @@
       <c r="R8" s="15"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="22" t="s">
         <v>9</v>
@@ -949,7 +946,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -969,7 +966,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -989,7 +986,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="C12" s="35" t="s">
         <v>3</v>
@@ -1015,7 +1012,7 @@
       <c r="R12" s="15"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1035,7 +1032,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1055,7 +1052,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="36" t="s">
@@ -1077,7 +1074,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="36" t="s">
@@ -1099,7 +1096,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
       <c r="D17" s="36" t="s">
@@ -1121,7 +1118,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="C18" s="5"/>
       <c r="D18" s="36" t="s">
@@ -1143,7 +1140,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="14"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -1163,7 +1160,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="14"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -1187,7 +1184,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="14"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -1207,7 +1204,7 @@
       <c r="R21" s="15"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1227,7 +1224,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1247,7 +1244,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -1267,7 +1264,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -1287,7 +1284,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1307,7 +1304,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1327,7 +1324,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1347,7 +1344,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1367,7 +1364,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1387,7 +1384,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1407,7 +1404,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1434,27 +1431,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77152470-7BCB-4CF6-9C41-DDD998120AE3}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="2" max="2" width="6.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1465,178 +1462,204 @@
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="51"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="41">
         <v>0</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="46"/>
+      <c r="D5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>1.65</v>
+      </c>
+      <c r="I5" s="48"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
       <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="45"/>
       <c r="F6" s="37"/>
       <c r="G6" s="41">
-        <v>0</v>
-      </c>
-      <c r="H6" s="52">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="49">
+        <v>1.6</v>
+      </c>
+      <c r="I6" s="50"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14"/>
       <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="45"/>
       <c r="F7" s="37"/>
       <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="42">
+        <v>2</v>
+      </c>
+      <c r="H7" s="49">
         <v>0</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="14"/>
       <c r="C8" s="41">
-        <v>2</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="45"/>
       <c r="F8" s="37"/>
       <c r="G8" s="41">
-        <v>2</v>
-      </c>
-      <c r="H8" s="42">
+        <v>3</v>
+      </c>
+      <c r="H8" s="49">
         <v>0</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="14"/>
       <c r="C9" s="41">
-        <v>3</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="37"/>
       <c r="G9" s="41">
-        <v>3</v>
-      </c>
-      <c r="H9" s="42">
+        <v>4</v>
+      </c>
+      <c r="H9" s="49">
         <v>0</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
       <c r="C10" s="41">
-        <v>4</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="45"/>
       <c r="F10" s="37"/>
       <c r="G10" s="41">
-        <v>4</v>
-      </c>
-      <c r="H10" s="42">
+        <v>5</v>
+      </c>
+      <c r="H10" s="49">
         <v>0</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14"/>
       <c r="C11" s="41">
-        <v>5</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="45"/>
       <c r="F11" s="37"/>
       <c r="G11" s="41">
-        <v>5</v>
-      </c>
-      <c r="H11" s="42">
+        <v>6</v>
+      </c>
+      <c r="H11" s="49">
         <v>0</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="14"/>
       <c r="C12" s="41">
-        <v>6</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="45"/>
       <c r="F12" s="37"/>
       <c r="G12" s="41">
-        <v>6</v>
-      </c>
-      <c r="H12" s="42">
+        <v>7</v>
+      </c>
+      <c r="H12" s="49">
         <v>0</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="14"/>
       <c r="C13" s="41">
-        <v>7</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="45"/>
       <c r="F13" s="37"/>
       <c r="G13" s="41">
-        <v>7</v>
-      </c>
-      <c r="H13" s="42">
+        <v>8</v>
+      </c>
+      <c r="H13" s="49">
         <v>0</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
       <c r="C14" s="41">
-        <v>8</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="45"/>
       <c r="F14" s="37"/>
       <c r="G14" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="42">
         <v>0</v>
@@ -1644,108 +1667,71 @@
       <c r="I14" s="43"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
-      <c r="C15" s="41">
-        <v>9</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="41">
-        <v>9</v>
-      </c>
-      <c r="H15" s="44">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="40">
         <v>0</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="40">
+        <v>9</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema MenuEstadistica.xlsx
+++ b/Sistema MenuEstadistica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA66F5-8D48-4311-B2A8-93B942BC5E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E8A73-F942-480C-91A1-CCE1B54474D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>nombre</t>
   </si>
@@ -102,16 +102,37 @@
     <t>f</t>
   </si>
   <si>
-    <t>MenuEstadistica</t>
-  </si>
-  <si>
-    <t>Pacientes</t>
-  </si>
-  <si>
     <t>esNumero()</t>
   </si>
   <si>
     <t>buscarNombre()</t>
+  </si>
+  <si>
+    <t>String usuario</t>
+  </si>
+  <si>
+    <t>String[] nombre</t>
+  </si>
+  <si>
+    <t>float[] estatura</t>
+  </si>
+  <si>
+    <t>int pos</t>
+  </si>
+  <si>
+    <t>ImageIcon iconoUsuario</t>
+  </si>
+  <si>
+    <t>ImageIcon iconoPassword</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>e17MenuEstadistica</t>
+  </si>
+  <si>
+    <t>Paciente</t>
   </si>
 </sst>
 </file>
@@ -178,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -382,11 +403,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -416,45 +448,48 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +834,7 @@
   <dimension ref="B3:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +843,9 @@
     <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
     <col min="4" max="10" width="8.453125" style="1"/>
     <col min="11" max="11" width="3.81640625" style="1" customWidth="1"/>
-    <col min="12" max="16" width="8.453125" style="1"/>
+    <col min="12" max="12" width="8.453125" style="1"/>
+    <col min="13" max="13" width="5.81640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.453125" style="1"/>
     <col min="17" max="17" width="4.453125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.453125" style="1"/>
   </cols>
@@ -936,16 +973,16 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -956,40 +993,40 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="I12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -998,40 +1035,40 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="J14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -1040,130 +1077,132 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="J15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="J16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="J17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="J19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="J20" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1172,98 +1211,108 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="7"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
@@ -1274,19 +1323,21 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1294,16 +1345,16 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
@@ -1408,8 +1459,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1458,10 +1509,10 @@
       <c r="E4" s="26"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1469,10 +1520,10 @@
       <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="14"/>
       <c r="G5" s="18">
         <v>0</v>
@@ -1488,18 +1539,18 @@
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="14"/>
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="29">
         <v>1.6</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1507,18 +1558,18 @@
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="14"/>
       <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="29">
         <v>0</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1526,18 +1577,18 @@
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="14"/>
       <c r="G8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1545,18 +1596,18 @@
       <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
       <c r="G9" s="18">
         <v>4</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="29">
         <v>0</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1564,18 +1615,18 @@
       <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="14"/>
       <c r="G10" s="18">
         <v>5</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1583,16 +1634,16 @@
       <c r="C11" s="18">
         <v>6</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="14"/>
       <c r="G11" s="18">
         <v>6</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="29">
         <v>0</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1600,16 +1651,16 @@
       <c r="C12" s="18">
         <v>7</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="14"/>
       <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="29">
         <v>0</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1617,16 +1668,16 @@
       <c r="C13" s="18">
         <v>8</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="14"/>
       <c r="G13" s="18">
         <v>8</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="29">
         <v>0</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1634,16 +1685,16 @@
       <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="14"/>
       <c r="G14" s="18">
         <v>9</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>0</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -1665,7 +1716,7 @@
       <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1693,6 +1744,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D4:E4"/>
@@ -1709,12 +1766,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema MenuEstadistica.xlsx
+++ b/Sistema MenuEstadistica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilberto\Documents\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E8A73-F942-480C-91A1-CCE1B54474D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA3E43-6F7C-4250-AA62-B2F165356641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sistema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>nombre</t>
   </si>
@@ -105,9 +105,6 @@
     <t>esNumero()</t>
   </si>
   <si>
-    <t>buscarNombre()</t>
-  </si>
-  <si>
     <t>String usuario</t>
   </si>
   <si>
@@ -133,6 +130,24 @@
   </si>
   <si>
     <t>Paciente</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>ImageIcon iconoError</t>
+  </si>
+  <si>
+    <t>ImageIcon iconoOk</t>
+  </si>
+  <si>
+    <t>buscarNombre(String paciente)</t>
+  </si>
+  <si>
+    <t>consultaIndividual()</t>
+  </si>
+  <si>
+    <t>modificar()</t>
   </si>
 </sst>
 </file>
@@ -418,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,19 +469,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -478,20 +505,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,24 +850,32 @@
   <dimension ref="B3:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.453125" style="1"/>
-    <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
-    <col min="4" max="10" width="8.453125" style="1"/>
-    <col min="11" max="11" width="3.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="1"/>
-    <col min="13" max="13" width="5.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.453125" style="1"/>
-    <col min="17" max="17" width="4.453125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.453125" style="1"/>
+    <col min="1" max="2" width="8.42578125" style="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" style="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="1"/>
+    <col min="11" max="11" width="3.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="1"/>
+    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="1"/>
+    <col min="15" max="15" width="4.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
@@ -859,7 +883,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -879,7 +903,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -899,7 +923,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
         <v>6</v>
@@ -921,7 +945,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
         <v>7</v>
@@ -943,7 +967,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
         <v>8</v>
@@ -965,7 +989,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -985,7 +1009,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1005,31 +1029,33 @@
       <c r="R11" s="6"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -1043,13 +1069,15 @@
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1058,20 +1086,20 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="7"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -1081,19 +1109,21 @@
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="7"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>
@@ -1103,19 +1133,21 @@
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -1125,87 +1157,85 @@
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+        <v>25</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="7"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="7"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -1213,21 +1243,23 @@
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1236,20 +1268,22 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="7"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1258,20 +1292,22 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="J23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="7"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1280,20 +1316,20 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="7"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1302,20 +1338,20 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="7"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1324,20 +1360,20 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="J26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1351,13 +1387,13 @@
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1377,7 +1413,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1397,7 +1433,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1417,7 +1453,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1437,7 +1473,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1458,9 +1494,10 @@
       <c r="S32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="O12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1475,21 +1512,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
-    <col min="2" max="2" width="6.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.54296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1500,204 +1537,204 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="14"/>
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="31">
         <v>1.65</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14"/>
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="23">
         <v>1.6</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="14"/>
       <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="23">
         <v>0</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="14"/>
       <c r="G8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="23">
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="14"/>
       <c r="G9" s="18">
         <v>4</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="14"/>
       <c r="G10" s="18">
         <v>5</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="23">
         <v>0</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="18">
         <v>6</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="14"/>
       <c r="G11" s="18">
         <v>6</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="18">
         <v>7</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="14"/>
       <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="23">
         <v>0</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="18">
         <v>8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="14"/>
       <c r="G13" s="18">
         <v>8</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="23">
         <v>0</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="14"/>
       <c r="G14" s="18">
         <v>9</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="28">
         <v>0</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1708,7 +1745,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
         <v>11</v>
@@ -1731,7 +1768,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1744,12 +1781,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D4:E4"/>
@@ -1766,6 +1797,12 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema MenuEstadistica.xlsx
+++ b/Sistema MenuEstadistica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E8A73-F942-480C-91A1-CCE1B54474D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DAC93-D978-4067-A6DF-8AD3DA065DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>nombre</t>
   </si>
@@ -57,15 +57,6 @@
     <t>registrarDatos()</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>String[ ] nombre</t>
-  </si>
-  <si>
-    <t>float[ ] esatura</t>
-  </si>
-  <si>
     <t>iniciarSistema()</t>
   </si>
   <si>
@@ -133,6 +124,9 @@
   </si>
   <si>
     <t>Paciente</t>
+  </si>
+  <si>
+    <t>Sistema</t>
   </si>
 </sst>
 </file>
@@ -418,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,21 +448,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,20 +484,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AAB793-617C-4441-A3B8-D2C3B9518E63}">
   <dimension ref="B3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,9 +894,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -923,9 +914,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -945,9 +934,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1008,25 +995,27 @@
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="O12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -1043,10 +1032,10 @@
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
@@ -1058,17 +1047,17 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="J14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="7"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -1080,17 +1069,17 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="J15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="7"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1102,17 +1091,17 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="J16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
@@ -1124,17 +1113,17 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="J17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="7"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
@@ -1143,66 +1132,66 @@
       <c r="D18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="J18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="7"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="J20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="7"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1215,16 +1204,16 @@
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
       <c r="J21" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.35">
@@ -1236,17 +1225,17 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="7"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.35">
@@ -1258,17 +1247,17 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="7"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.35">
@@ -1280,17 +1269,17 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="J24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="7"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
@@ -1302,17 +1291,17 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="J25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="7"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.35">
@@ -1324,17 +1313,17 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="J26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1351,10 +1340,10 @@
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
@@ -1458,9 +1447,10 @@
       <c r="S32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="O12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1503,16 +1493,16 @@
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1520,18 +1510,18 @@
       <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="F5" s="14"/>
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="31">
         <v>1.65</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1539,18 +1529,18 @@
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="14"/>
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="23">
         <v>1.6</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1558,18 +1548,18 @@
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="14"/>
       <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="23">
         <v>0</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1577,18 +1567,18 @@
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="26"/>
       <c r="F8" s="14"/>
       <c r="G8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="23">
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1596,18 +1586,18 @@
       <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="26"/>
       <c r="F9" s="14"/>
       <c r="G9" s="18">
         <v>4</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1615,18 +1605,18 @@
       <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="26"/>
       <c r="F10" s="14"/>
       <c r="G10" s="18">
         <v>5</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="23">
         <v>0</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1634,16 +1624,16 @@
       <c r="C11" s="18">
         <v>6</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="14"/>
       <c r="G11" s="18">
         <v>6</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1651,16 +1641,16 @@
       <c r="C12" s="18">
         <v>7</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="14"/>
       <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="23">
         <v>0</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1668,16 +1658,16 @@
       <c r="C13" s="18">
         <v>8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="14"/>
       <c r="G13" s="18">
         <v>8</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="23">
         <v>0</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1685,16 +1675,16 @@
       <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="14"/>
       <c r="G14" s="18">
         <v>9</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="28">
         <v>0</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -1711,19 +1701,19 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" s="17">
         <v>5</v>
@@ -1744,12 +1734,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D4:E4"/>
@@ -1766,6 +1750,12 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema MenuEstadistica.xlsx
+++ b/Sistema MenuEstadistica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilbe\OneDrive\Documentos\GitHub\POO_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DAC93-D978-4067-A6DF-8AD3DA065DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D7DA1-7D38-48D0-B0CB-814DAF3FD250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5667F7EF-7FDF-4FB2-A308-879BAFBD21BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>nombre</t>
   </si>
@@ -57,9 +57,6 @@
     <t>registrarDatos()</t>
   </si>
   <si>
-    <t>iniciarSistema()</t>
-  </si>
-  <si>
     <t>mostrarReporte()</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>ImageIcon iconoPassword</t>
   </si>
   <si>
-    <t>….</t>
-  </si>
-  <si>
     <t>e17MenuEstadistica</t>
   </si>
   <si>
@@ -127,6 +121,15 @@
   </si>
   <si>
     <t>Sistema</t>
+  </si>
+  <si>
+    <t>inicializarSistema()</t>
+  </si>
+  <si>
+    <t>consultaIndividual()</t>
+  </si>
+  <si>
+    <t>modificar()</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,14 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -412,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,37 +465,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,21 +840,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AAB793-617C-4441-A3B8-D2C3B9518E63}">
   <dimension ref="B3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.453125" style="1"/>
     <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
-    <col min="4" max="10" width="8.453125" style="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="1"/>
     <col min="11" max="11" width="3.81640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.453125" style="1"/>
-    <col min="13" max="13" width="5.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.453125" style="1"/>
+    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7265625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.453125" style="1"/>
     <col min="17" max="17" width="4.453125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.453125" style="1"/>
+    <col min="18" max="18" width="3.453125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -995,7 +1017,7 @@
     <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="C12" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1003,7 +1025,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1011,7 +1033,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="6"/>
       <c r="O12" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -1032,7 +1054,9 @@
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
@@ -1041,66 +1065,68 @@
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="J14" s="13"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="O14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
+      <c r="O15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
@@ -1114,76 +1140,70 @@
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="J19" s="13"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="J20" s="13"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
@@ -1203,9 +1223,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
@@ -1226,15 +1244,17 @@
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="O22" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
@@ -1248,15 +1268,17 @@
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="O23" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="34"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
@@ -1270,15 +1292,17 @@
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" s="13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="O24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
@@ -1292,15 +1316,15 @@
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
       <c r="N25" s="6"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
@@ -1314,15 +1338,15 @@
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" s="13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
@@ -1493,16 +1517,16 @@
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1511,17 +1535,17 @@
         <v>0</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="14"/>
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="28">
         <v>1.65</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1530,17 +1554,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="14"/>
       <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="30">
         <v>1.6</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1549,17 +1573,17 @@
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="14"/>
       <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1568,17 +1592,17 @@
         <v>3</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="14"/>
       <c r="G8" s="18">
         <v>3</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1587,17 +1611,17 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="14"/>
       <c r="G9" s="18">
         <v>4</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="30">
         <v>0</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1606,17 +1630,17 @@
         <v>5</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="14"/>
       <c r="G10" s="18">
         <v>5</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="30">
         <v>0</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1630,10 +1654,10 @@
       <c r="G11" s="18">
         <v>6</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="30">
         <v>0</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1647,10 +1671,10 @@
       <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1664,10 +1688,10 @@
       <c r="G13" s="18">
         <v>8</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1681,10 +1705,10 @@
       <c r="G14" s="18">
         <v>9</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="23">
         <v>0</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -1701,19 +1725,19 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="17">
         <v>5</v>
@@ -1734,6 +1758,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D4:E4"/>
@@ -1750,12 +1780,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
